--- a/experiment result cnn/4096_0.2_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/4096_0.2_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01470203376115963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.007468319171715828</v>
+        <v>0.005019858911802228</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.006851004921800065</v>
+        <v>0.001568859230758398</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003410934315774951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.006112564807097638</v>
+        <v>0.0009232275715799593</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.001992758254871599</v>
+        <v>8.001999999671805e-05</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0003365606918153592</v>
+        <v>0.0004003479993162554</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.004049197384102884</v>
+        <v>0.004809908216479772</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003701675440415965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01113318700512007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0187067075725518</v>
+        <v>0.02667754302774038</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0008699841363706832</v>
+        <v>0.005419171676686706</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.006007268102815542</v>
+        <v>0.0005208719935224465</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0123206983344294</v>
+        <v>0.01055599798379658</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.005081360581143396</v>
+        <v>0.0005413539816256218</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.001603589621192667</v>
+        <v>0.003495759903184246</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.005084413882949701</v>
+        <v>0.0001800899999448558</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.003353639730297007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.007421073902663701</v>
+        <v>0.004553252908838193</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.002785476855049683</v>
+        <v>0.0008216899853557537</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.005572373350170712</v>
+        <v>0.0004003119993847632</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.004519185303694209</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0065024904581179</v>
+        <v>0.006744703873676707</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.002915756245324517</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01731865812701152</v>
+        <v>0.002219442242363571</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.005516320919082356</v>
+        <v>0.008413380333126953</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.002622382601846373</v>
+        <v>0.002191921220818497</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.001942958266432878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.004205332983427928</v>
+        <v>0.001402299874511674</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02187254005484298</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.003953568912633085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00620745098560539</v>
+        <v>0.006369218348656151</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.002401495248927715</v>
+        <v>0.0004408039935742687</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.005753889413337066</v>
+        <v>0.008108847671311778</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.003807241551362232</v>
+        <v>0.0002803919984590513</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.001926486854158332</v>
+        <v>0.00285918205115317</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01132604489905039</v>
+        <v>0.0002603379648749703</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00426716804325429</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.001249399325210234</v>
+        <v>0.000802623932319641</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01033268368904516</v>
+        <v>0.0006219217682118533</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.008920395067483416</v>
+        <v>0.003959431276477769</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.008457310970657278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0141534142286887</v>
+        <v>0.0001600439999928759</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.006015671144176045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.005277195024418356</v>
+        <v>0.0002001999995991992</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01599294884013002</v>
+        <v>0.0005813619816249816</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.008099071176559596</v>
+        <v>0.001284215422024403</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.004246660591075738</v>
+        <v>0.0002801679998250092</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.004508157120572188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01413205799102822</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.004826193380319166</v>
+        <v>0.006320986692150614</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.05931453494023868</v>
+        <v>0.01470685900815747</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02191581561128103</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.001395232304405236</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02063005318543091</v>
+        <v>0.01189915452616365</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02306946741763406</v>
+        <v>0.03768742698108286</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0003666832089425044</v>
+        <v>0.000822001967004176</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0148641143400908</v>
+        <v>0.0003605799966477418</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02743511951082125</v>
+        <v>0.01781116235234905</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.02403969262844905</v>
+        <v>0.004297869524463385</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01088674972295082</v>
+        <v>0.001205691680965523</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.001719646825710114</v>
+        <v>0.004224357090918074</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01349466045891221</v>
+        <v>0.02439775126697583</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0007051127085516834</v>
+        <v>0.0003003459988539455</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01627686283442981</v>
+        <v>0.0548439028039845</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.03815154281867369</v>
+        <v>0.07472008832637102</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0008796420673453022</v>
+        <v>0.004321480420887331</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0186266701472081</v>
+        <v>0.06089209021282832</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0330843452574318</v>
+        <v>0.0003402979995030247</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.03746106123262017</v>
+        <v>0.00607715433101076</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01756108241627611</v>
+        <v>0.03814847018491011</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0003495926587582422</v>
+        <v>0.003479041004056999</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.02898756590992991</v>
+        <v>0.005224565321687708</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.04106330883402809</v>
+        <v>0.0006006199457971189</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01367199411879347</v>
+        <v>0.114453908527726</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.05767835244417489</v>
+        <v>0.05546024383120764</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.02095942716682098</v>
+        <v>0.00290798293708581</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.07899872713399805</v>
+        <v>0.002654500790820891</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.006297884874811956</v>
+        <v>0.08407386161135433</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01830732317305556</v>
+        <v>0.009060102220098494</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.930894447717858e-05</v>
+        <v>8.00319999897518e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.008209712838873109</v>
+        <v>0.002391275428735193</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01517748129959478</v>
+        <v>0.008271810146620127</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01438260898733167</v>
+        <v>0.05702914217304679</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.001120005688404841</v>
+        <v>0.005409576136583302</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.008522595199991415</v>
+        <v>0.006693935506364596</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.003039951598619889</v>
+        <v>0.143416802070354</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.07642938665664807</v>
+        <v>0.0646377609415639</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.08024670907376268</v>
+        <v>0.001989879289941421</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.01044924940732814</v>
+        <v>0.001367066796558986</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0917998693334402</v>
+        <v>0.006508118541653058</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.004155082931822277</v>
+        <v>0.03099993459215335</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.04134725071699537</v>
+        <v>0.002771610342996759</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.009991929673929771</v>
+        <v>0.004858444006106329</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.03926053976415532</v>
+        <v>0.008723404630422749</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.01550444334736143</v>
+        <v>0.03854474558283736</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.03725464033086494</v>
+        <v>0.03523629197924823</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.02329385676557574</v>
+        <v>0.006097840630614334</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.05422008832815385</v>
+        <v>0.02373898103798819</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01543973195012008</v>
+        <v>0.5207576461578489</v>
       </c>
     </row>
   </sheetData>
